--- a/13-small-multiples/13-small-multiples-solution.xlsx
+++ b/13-small-multiples/13-small-multiples-solution.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\13-small-multiples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD1D5D1-3A16-4E77-A604-066AA9FA9A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EA5A5F-2FBC-40C6-BC25-D3A9C612F954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="penguins" sheetId="1" r:id="rId1"/>
+    <sheet name="13-small-multiples" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -756,7 +756,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="penguins!I3"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'13-small-multiples'!I3"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -805,7 +805,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="penguins!I15"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'13-small-multiples'!I15"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -854,7 +854,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="penguins!I27"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'13-small-multiples'!I27"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
